--- a/Scripts/Results/Summary.xlsx
+++ b/Scripts/Results/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/samoily_biu_ac_il/Documents/Academic/Postdoc/Analysis/Scripts/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302584AE-7D5B-4B5C-8E03-3D50D1275B32}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F79B5F3-7321-414C-BCE2-4AB7A54EE9E0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Dataset</t>
   </si>
@@ -78,10 +78,16 @@
     <t>Jackson</t>
   </si>
   <si>
-    <t>Train time (h)</t>
+    <t>H3K27me</t>
   </si>
   <si>
-    <t>H3K27me</t>
+    <t>pHH3</t>
+  </si>
+  <si>
+    <t>Train time (min)</t>
+  </si>
+  <si>
+    <t>J2D</t>
   </si>
 </sst>
 </file>
@@ -181,11 +187,144 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3613-4DDE-8129-FBE8BED80C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:f>Sheet1!$A$2:$B$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pan-CK</c:v>
@@ -223,6 +362,9 @@
                   <c:pt idx="11">
                     <c:v>H3K27me</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pHH3</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -237,10 +379,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.374</c:v>
                 </c:pt>
@@ -265,8 +407,20 @@
                 <c:pt idx="7">
                   <c:v>0.379</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25059999999999999</c:v>
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,11 +695,144 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C6C4-4C76-9F65-494EDDE13022}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$13</c:f>
+              <c:f>Sheet1!$A$2:$B$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pan-CK</c:v>
@@ -583,6 +870,9 @@
                   <c:pt idx="11">
                     <c:v>H3K27me</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pHH3</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -597,10 +887,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>346.6</c:v>
                 </c:pt>
@@ -625,8 +915,20 @@
                 <c:pt idx="7">
                   <c:v>270.7</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>257.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>295.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240.74</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>176.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +1184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>Sheet1!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,7 +1205,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -926,7 +1228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -959,7 +1261,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>Sheet1!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -980,7 +1282,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1003,7 +1305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$20</c:f>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1014,13 +1316,13 @@
                   <c:v>0.379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,6 +1330,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AE9A-4D71-BFFC-B028976BA26F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HER2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B36-4FBF-8621-F8348910AA44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,7 +1674,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>Sheet1!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,7 +1695,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1351,7 +1718,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$27</c:f>
+              <c:f>Sheet1!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1384,7 +1751,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>Sheet1!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1405,7 +1772,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1428,7 +1795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$27</c:f>
+              <c:f>Sheet1!$D$24:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1439,13 +1806,13 @@
                   <c:v>270.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>257.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>295.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>240.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,6 +1820,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-92EB-4E06-A029-48B27FF534D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HER2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>250.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B067-4F56-9076-543318E0FCC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3898,7 +4330,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>320446</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>166456</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3934,7 +4366,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>150969</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>167487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3964,16 +4396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>821733</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113230</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5304</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>290697</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99193</xdr:rowOff>
+      <xdr:colOff>480372</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4000,16 +4432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>445325</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>41233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>311174</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>173121</xdr:rowOff>
+      <xdr:colOff>146239</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4302,15 +4734,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4330,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4437,7 +4869,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4451,30 +4883,66 @@
         <v>270.7</v>
       </c>
       <c r="E9">
-        <v>0.115</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D10">
+        <v>257.05</v>
+      </c>
+      <c r="E10">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="F10">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D11">
+        <v>295.01</v>
+      </c>
+      <c r="E11">
+        <v>-0.113</v>
+      </c>
+      <c r="F11">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D12">
+        <v>240.74</v>
+      </c>
+      <c r="E12">
+        <v>-0.155</v>
+      </c>
+      <c r="F12">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>0.25059999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="D13">
         <v>176.3</v>
@@ -4483,150 +4951,179 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D14">
+        <v>317.12</v>
+      </c>
+      <c r="E14">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="F14">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f>C2</f>
         <v>0.374</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>C8</f>
         <v>0.318</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>C3</f>
         <v>0.40799999999999997</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>C9</f>
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f>C4</f>
         <v>0.442</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>C10</f>
-        <v>0</v>
+        <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f>C5</f>
         <v>0.46700000000000003</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f>C11</f>
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f>C6</f>
         <v>0.46300000000000002</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f>C12</f>
-        <v>0</v>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>12</v>
       </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f>D2</f>
         <v>346.6</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f>D8</f>
         <v>298.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C27" si="0">D3</f>
+      <c r="C25">
+        <f t="shared" ref="C25:C28" si="0">D3</f>
         <v>371.6</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D27" si="1">D9</f>
+      <c r="D25">
+        <f t="shared" ref="D25:D28" si="1">D9</f>
         <v>270.7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>257.05</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>340.8</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>295.01</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>292.7</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240.74</v>
+      </c>
+      <c r="E28">
+        <v>250.2</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Results/Summary.xlsx
+++ b/Scripts/Results/Summary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/samoily_biu_ac_il/Documents/Academic/Postdoc/Analysis/Scripts/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F79B5F3-7321-414C-BCE2-4AB7A54EE9E0}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180667AA-E81E-4717-9F95-76E849C02E68}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Dataset</t>
   </si>
@@ -89,11 +92,17 @@
   <si>
     <t>J2D</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,6 +198,90 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -206,171 +300,36 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$14</c:f>
+              <c:f>Sheet1!$A$8:$B$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Pan-CK</c:v>
+                    <c:v>CK8-18</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>CK5</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CK8-18</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Ki67</c:v>
+                    <c:v>pHH3</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HER2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>ERa</c:v>
+                    <c:v>Pan-CK</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Pan-CK</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>CK5</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>CK8-18</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Ki67</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>HER2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>H3K27me</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pHH3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Danenberg</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>Jackson</c:v>
                   </c:pt>
                 </c:lvl>
@@ -379,48 +338,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Sheet1!$C$8:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.374</c:v>
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.442</c:v>
+                  <c:v>0.379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46300000000000002</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.312</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.318</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.379</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.40100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.35699999999999998</c:v>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>0.22009999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,7 +527,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -622,12 +563,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -696,6 +632,90 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -714,171 +734,36 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$14</c:f>
+              <c:f>Sheet1!$A$8:$B$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Pan-CK</c:v>
+                    <c:v>CK8-18</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>CK5</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CK8-18</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Ki67</c:v>
+                    <c:v>pHH3</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HER2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>ERa</c:v>
+                    <c:v>Pan-CK</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Pan-CK</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>CK5</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>CK8-18</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Ki67</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>HER2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>H3K27me</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>pHH3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Danenberg</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>Jackson</c:v>
                   </c:pt>
                 </c:lvl>
@@ -887,48 +772,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:f>Sheet1!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>346.6</c:v>
+                  <c:v>257.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371.6</c:v>
+                  <c:v>295.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>314</c:v>
+                  <c:v>270.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340.8</c:v>
+                  <c:v>317.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292.7</c:v>
+                  <c:v>240.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>257.7</c:v>
+                  <c:v>298.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>257.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>295.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>240.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>176.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>317.12</c:v>
+                  <c:v>253.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,12 +997,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1174,7 +1036,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12447286784294566"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.83207577146879064"/>
+          <c:h val="0.81117982814732614"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1330,71 +1202,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AE9A-4D71-BFFC-B028976BA26F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>J2D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$17:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Pan-CK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CK5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CK8-18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$17:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>0.39900000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B36-4FBF-8621-F8348910AA44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,7 +1246,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1489,7 +1296,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1521,7 +1328,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1553,7 +1360,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1582,6 +1389,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80612368205589735"/>
+          <c:y val="0.64367899105800785"/>
+          <c:w val="0.18290960726960181"/>
+          <c:h val="0.17910259289812333"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1595,7 +1412,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1620,12 +1437,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1635,7 +1447,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -1664,7 +1476,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17132330192659259"/>
+          <c:y val="4.6635671915878196E-2"/>
+          <c:w val="0.75370817374903831"/>
+          <c:h val="0.77402130528758262"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1820,71 +1642,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-92EB-4E06-A029-48B27FF534D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>J2D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$24:$B$28</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Pan-CK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CK5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CK8-18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$24:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>250.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B067-4F56-9076-543318E0FCC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1929,7 +1686,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1979,7 +1736,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2011,7 +1768,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2043,7 +1800,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2070,37 +1827,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2110,12 +1836,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2125,7 +1846,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -4323,15 +4044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18286</xdr:colOff>
+      <xdr:colOff>18287</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>320446</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166456</xdr:rowOff>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4364,10 +4085,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>150969</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167487</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4396,16 +4117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5304</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71997</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>480372</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47999</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4432,16 +4153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>445325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>41233</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97916</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>146239</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>32926</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>341033</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4736,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4770,30 +4491,30 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.374</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D2">
-        <v>346.6</v>
+        <v>340.8</v>
       </c>
       <c r="E2">
-        <v>6.3E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.40799999999999997</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D3">
-        <v>371.6</v>
+        <v>292.7</v>
       </c>
       <c r="E3">
-        <v>0.111</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4812,30 +4533,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.46700000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D5">
-        <v>340.8</v>
+        <v>371.6</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.46300000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="D6">
-        <v>292.7</v>
+        <v>346.6</v>
       </c>
       <c r="E6">
-        <v>0.16400000000000001</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4857,67 +4578,67 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.318</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D8">
-        <v>298.39999999999998</v>
+        <v>257.05</v>
       </c>
       <c r="E8">
-        <v>8.7999999999999995E-2</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="F8">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.379</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D9">
-        <v>270.7</v>
+        <v>295.01</v>
       </c>
       <c r="E9">
-        <v>-0.115</v>
+        <v>-0.113</v>
+      </c>
+      <c r="F9">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.40100000000000002</v>
+        <v>0.379</v>
       </c>
       <c r="D10">
-        <v>257.05</v>
+        <v>270.7</v>
       </c>
       <c r="E10">
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="F10">
-        <v>163</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.39100000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D11">
-        <v>295.01</v>
+        <v>317.12</v>
       </c>
       <c r="E11">
-        <v>-0.113</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4939,33 +4660,33 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0.251</v>
+        <v>0.318</v>
       </c>
       <c r="D13">
-        <v>176.3</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="E13">
-        <v>0.19600000000000001</v>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F13">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0.35699999999999998</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.22009999999999999</v>
       </c>
       <c r="D14">
-        <v>317.12</v>
+        <v>253.4</v>
       </c>
       <c r="E14">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="F14">
-        <v>160</v>
+        <v>-0.13700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4984,12 +4705,15 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <f>C2</f>
+        <f>C6</f>
         <v>0.374</v>
       </c>
       <c r="D17">
-        <f>C8</f>
+        <f>C13</f>
         <v>0.318</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -4997,12 +4721,15 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f>C3</f>
+        <f>C5</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="D18">
-        <f>C9</f>
+        <f>C10</f>
         <v>0.379</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -5014,8 +4741,11 @@
         <v>0.442</v>
       </c>
       <c r="D19">
-        <f>C10</f>
+        <f>C8</f>
         <v>0.40100000000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -5023,12 +4753,15 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>C5</f>
+        <f>C2</f>
         <v>0.46700000000000003</v>
       </c>
       <c r="D20">
-        <f>C11</f>
+        <f>C9</f>
         <v>0.39100000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -5036,15 +4769,15 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <f>C6</f>
+        <f>C3</f>
         <v>0.46300000000000002</v>
       </c>
       <c r="D21">
         <f>C12</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="E21">
-        <v>0.39900000000000002</v>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -5063,12 +4796,15 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <f>D2</f>
+        <f>D6</f>
         <v>346.6</v>
       </c>
       <c r="D24">
-        <f>D8</f>
+        <f>D13</f>
         <v>298.39999999999998</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -5076,12 +4812,15 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C28" si="0">D3</f>
+        <f>D5</f>
         <v>371.6</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D28" si="1">D9</f>
+        <f>D10</f>
         <v>270.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
@@ -5089,12 +4828,15 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>314</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f>D8</f>
         <v>257.05</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
@@ -5102,12 +4844,15 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>D2</f>
         <v>340.8</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f>D9</f>
         <v>295.01</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
@@ -5115,18 +4860,19 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>292.7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f>D12</f>
         <v>240.74</v>
       </c>
-      <c r="E28">
-        <v>250.2</v>
+      <c r="E28" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A16:F16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Scripts/Results/Summary.xlsx
+++ b/Scripts/Results/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/samoily_biu_ac_il/Documents/Academic/Postdoc/Analysis/Scripts/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180667AA-E81E-4717-9F95-76E849C02E68}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B79202-C389-4F6F-9415-12841602B17A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Dataset</t>
   </si>
@@ -93,7 +93,22 @@
     <t>J2D</t>
   </si>
   <si>
-    <t>?</t>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>CD45</t>
+  </si>
+  <si>
+    <t>CD68</t>
+  </si>
+  <si>
+    <t>sma</t>
+  </si>
+  <si>
+    <t>baseline?</t>
   </si>
 </sst>
 </file>
@@ -210,6 +225,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -224,6 +244,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -238,6 +263,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -252,6 +282,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -266,6 +301,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -280,6 +320,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6F0D-4880-BA89-95F6FD5F614D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -644,6 +689,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -658,6 +708,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -672,6 +727,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -686,6 +746,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -700,6 +765,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -714,6 +784,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4871-429E-9DA9-9978E5DC571B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1077,9 +1152,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:f>Sheet1!$B$17:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1091,19 +1166,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:f>Sheet1!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.374</c:v>
                 </c:pt>
@@ -1115,9 +1187,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,9 +1223,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:f>Sheet1!$B$17:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1168,19 +1237,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:f>Sheet1!$D$17:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.318</c:v>
                 </c:pt>
@@ -1192,9 +1258,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,9 +1580,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:f>Sheet1!$B$24:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1531,19 +1594,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$28</c:f>
+              <c:f>Sheet1!$C$24:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>346.6</c:v>
                 </c:pt>
@@ -1555,9 +1615,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>340.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,9 +1651,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:f>Sheet1!$B$24:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1608,19 +1665,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$28</c:f>
+              <c:f>Sheet1!$D$24:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>298.39999999999998</c:v>
                 </c:pt>
@@ -1632,9 +1686,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>295.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,6 +1910,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12447286784294566"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.83207577146879064"/>
+          <c:h val="0.78251656593195784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CD20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CD3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CD45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16339999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F3-4D27-8E76-E7297C68D7B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CD20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CD3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CD45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00F3-4D27-8E76-E7297C68D7B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="450038527"/>
+        <c:axId val="450038943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450038527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450038943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84692773428435786"/>
+          <c:y val="4.5336261335475893E-2"/>
+          <c:w val="0.13983860430745504"/>
+          <c:h val="0.16118804138323276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2019,6 +2522,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3535,6 +4078,511 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4189,6 +5237,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313204</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>182859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E0103C-35C9-494D-BDA3-B94A3179A448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4455,14 +5541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4696,11 +5783,8 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -4712,11 +5796,8 @@
         <f>C13</f>
         <v>0.318</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -4728,11 +5809,8 @@
         <f>C10</f>
         <v>0.379</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -4744,11 +5822,8 @@
         <f>C8</f>
         <v>0.40100000000000002</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -4760,11 +5835,8 @@
         <f>C9</f>
         <v>0.39100000000000001</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -4776,22 +5848,16 @@
         <f>C12</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -4803,11 +5869,8 @@
         <f>D13</f>
         <v>298.39999999999998</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -4819,11 +5882,8 @@
         <f>D10</f>
         <v>270.7</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -4835,11 +5895,8 @@
         <f>D8</f>
         <v>257.05</v>
       </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -4851,11 +5908,8 @@
         <f>D9</f>
         <v>295.01</v>
       </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -4867,8 +5921,76 @@
         <f>D12</f>
         <v>240.74</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>17</v>
+      </c>
+      <c r="C31">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>5.0099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0.16339999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Results/Summary.xlsx
+++ b/Scripts/Results/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/samoily_biu_ac_il/Documents/Academic/Postdoc/Analysis/Scripts/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/samoily_biu_ac_il/Documents/Academic/Postdoc/Multiplexed analyses/IMC/Scripts/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B79202-C389-4F6F-9415-12841602B17A}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_F25DC773A252ABDACC1048A339584C225BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D97788-91E6-48B2-A05F-42084AB74B6C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$45:$G$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
   <si>
     <t>Dataset</t>
   </si>
@@ -108,15 +108,40 @@
     <t>sma</t>
   </si>
   <si>
-    <t>baseline?</t>
+    <t>Dan. (full)</t>
+  </si>
+  <si>
+    <t>J - % area</t>
+  </si>
+  <si>
+    <t>D - % area</t>
+  </si>
+  <si>
+    <t>% area</t>
+  </si>
+  <si>
+    <t>Jack. (full)</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>C45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,14 +172,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,15 +238,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RMSE</c:v>
+                  <c:v>FID</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -212,170 +261,34 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6F0D-4880-BA89-95F6FD5F614D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3613-4DDE-8129-FBE8BED80C70}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$8:$B$14</c:f>
+              <c:f>Sheet1!$A$2:$B$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>CK8-18</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Ki67</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>CK5</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>pHH3</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>HER2</c:v>
+                    <c:v>Pan-CK</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Pan-CK</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>H3K27me</c:v>
+                    <c:v>ERa</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jackson</c:v>
+                    <c:v>Danenberg</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -383,37 +296,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$14</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>340.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39100000000000001</c:v>
+                  <c:v>292.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.379</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>371.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35099999999999998</c:v>
+                  <c:v>346.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.318</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.000">
-                  <c:v>0.22009999999999999</c:v>
+                  <c:v>257.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1F9-4D32-8098-A919D9E51F5F}"/>
+              <c16:uniqueId val="{00000010-0B62-49EF-994B-DCDC43AD39EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -434,45 +344,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="457638927"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -508,7 +385,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -522,7 +399,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>RMSE</a:t>
+                  <a:t>FID</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -540,7 +417,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -572,7 +449,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -590,6 +467,7 @@
         <c:crossAx val="457638511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -618,7 +496,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -631,7 +509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -647,199 +525,94 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13586383175358807"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.82068487737219653"/>
+          <c:h val="0.78251656593195784"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FID</c:v>
+                  <c:v>D - % area</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-4871-429E-9DA9-9978E5DC571B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C6C4-4C76-9F65-494EDDE13022}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$8:$B$14</c:f>
+              <c:f>Sheet1!$A$94:$B$104</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>CK8-18</c:v>
+                    <c:v>CD3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Ki67</c:v>
+                    <c:v>CD68</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>CK5</c:v>
+                    <c:v>CD20</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>pHH3</c:v>
+                    <c:v>CD45</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>HER2</c:v>
+                    <c:v>sma</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Pan-CK</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>H3K27me</c:v>
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ERa</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jackson</c:v>
+                    <c:v>Immune</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Identity</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Clinical</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -847,37 +620,177 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$14</c:f>
+              <c:f>Sheet1!$C$94:$C$104</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>257.05</c:v>
+                  <c:v>9.5516059779999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.01</c:v>
+                  <c:v>34.598979030000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.7</c:v>
+                  <c:v>3.2566599309999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.12</c:v>
+                  <c:v>7.76826843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.74</c:v>
+                  <c:v>66.19802722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>298.39999999999998</c:v>
+                  <c:v>13.486557269999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253.4</c:v>
+                  <c:v>14.58223203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.985700940000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.822217160000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.82876701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1747951170000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2073-4DE8-BA6D-303B27F04466}"/>
+              <c16:uniqueId val="{00000000-3A0D-4632-9F6D-E582F1EAE94B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$94:$B$104</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CD3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CD68</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CD20</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CD45</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>sma</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ERa</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Immune</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Identity</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Clinical</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$94:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A0D-4632-9F6D-E582F1EAE94B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -890,11 +803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="457638511"/>
-        <c:axId val="457638927"/>
+        <c:axId val="450038527"/>
+        <c:axId val="450038943"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="457638511"/>
+        <c:axId val="450038527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,10 +821,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -922,7 +832,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -937,7 +847,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457638927"/>
+        <c:crossAx val="450038943"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,26 +855,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457638927"/>
+        <c:axId val="450038943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -972,7 +869,522 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>FID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68285069169575829"/>
+          <c:y val="4.0450012784454092E-2"/>
+          <c:w val="0.1850150494211906"/>
+          <c:h val="0.19703657135864602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11382997464300011"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.84271880421726941"/>
+          <c:h val="0.78251656593195784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$37:$B$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$37,Sheet1!$B$42:$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$37:$D$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$37,Sheet1!$D$42:$D$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A4-46A2-A9E4-DAB59E638F2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dan. (full)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$37:$B$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$37,Sheet1!$B$42:$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$37:$E$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$E$37,Sheet1!$E$42:$E$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>340.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9A4-46A2-A9E4-DAB59E638F2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jack. (full)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$37:$B$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$37,Sheet1!$B$42:$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$37:$F$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$F$37,Sheet1!$F$42:$F$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>295.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9A4-46A2-A9E4-DAB59E638F2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="450038527"/>
+        <c:axId val="450038943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450038527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450038943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1004,7 +1416,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1020,14 +1432,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1036,7 +1450,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1051,9 +1465,10 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457638511"/>
+        <c:crossAx val="450038527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1063,6 +1478,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74474927924518086"/>
+          <c:y val="7.0107832200926201E-2"/>
+          <c:w val="0.15217376217803286"/>
+          <c:h val="0.36200006147468489"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1082,7 +1542,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -1092,10 +1552,11 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1131,7 +1592,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Sheet1!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1152,9 +1613,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$B$20</c:f>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1166,16 +1627,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$20</c:f>
+              <c:f>Sheet1!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.374</c:v>
                 </c:pt>
@@ -1187,6 +1651,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Sheet1!$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,9 +1690,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$B$20</c:f>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Pan-CK</c:v>
                 </c:pt>
@@ -1237,16 +1704,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HER2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$20</c:f>
+              <c:f>Sheet1!$E$19:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.318</c:v>
                 </c:pt>
@@ -1258,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,8 +1931,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80612368205589735"/>
           <c:y val="0.64367899105800785"/>
-          <c:w val="0.18290960726960181"/>
-          <c:h val="0.17910259289812333"/>
+          <c:w val="0.19387625944126491"/>
+          <c:h val="7.5625058629423411E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1523,7 +1996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1544,9 +2017,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17132330192659259"/>
+          <c:x val="0.11942054217232659"/>
           <c:y val="4.6635671915878196E-2"/>
-          <c:w val="0.75370817374903831"/>
+          <c:w val="0.80561094343760875"/>
           <c:h val="0.77402130528758262"/>
         </c:manualLayout>
       </c:layout>
@@ -1559,7 +2032,177 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D - % area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$26:$C$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.48655727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.58223203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.985700940000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.822217160000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92EB-4E06-A029-48B27FF534D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J - % area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$26:$F$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$26:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.20128612370691801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31836085952235299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27749155771600498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25666775391575802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B508-4C87-B664-092054E4EDFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1580,7 +2223,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$24:$B$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1600,7 +2250,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$26:$D$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$26:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1621,16 +2278,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92EB-4E06-A029-48B27FF534D5}"/>
+              <c16:uniqueId val="{00000001-92EB-4E06-A029-48B27FF534D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Sheet1!$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1651,7 +2308,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$24:$B$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1671,7 +2335,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$26:$E$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$26:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1692,7 +2363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92EB-4E06-A029-48B27FF534D5}"/>
+              <c16:uniqueId val="{00000001-B508-4C87-B664-092054E4EDFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1737,7 +2408,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1787,7 +2458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1819,7 +2490,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1835,7 +2506,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1851,7 +2522,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1878,6 +2549,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82270165264543826"/>
+          <c:y val="8.1665296475030291E-2"/>
+          <c:w val="0.16493337447407622"/>
+          <c:h val="0.38100899589771431"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1897,7 +2613,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1600"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -1910,7 +2626,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1931,9 +2647,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12447286784294566"/>
+          <c:x val="0.13586383175358807"/>
           <c:y val="4.8198723648115505E-2"/>
-          <c:w val="0.83207577146879064"/>
+          <c:w val="0.82068487737219653"/>
           <c:h val="0.78251656593195784"/>
         </c:manualLayout>
       </c:layout>
@@ -1942,11 +2658,124 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D - % area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$58:$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CD20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CD45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14.58223203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.598979030000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.19802722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5516059779999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.822217160000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2566599309999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.985700940000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.76826843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.82876701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.486557269999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1747951170000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00F3-4D27-8E76-E7297C68D7B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1957,7 +2786,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1965,145 +2794,149 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$31:$B$39</c:f>
+              <c:f>Sheet1!$B$58:$B$68</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CD20</c:v>
+                  <c:v>CK5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CD3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CD45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CD68</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ki67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>sma</c:v>
+                  <c:v>CD20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>CK5</c:v>
+                  <c:v>CK8-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CK8-18</c:v>
+                  <c:v>CD45</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ERa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$39</c:f>
+              <c:f>Sheet1!$D$58:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.7900000000000003E-2</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0099999999999999E-2</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.93E-2</c:v>
+                  <c:v>186.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>189.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16339999999999999</c:v>
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00F3-4D27-8E76-E7297C68D7B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$31:$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>CD20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CD3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CD45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CD68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ki67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sma</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CK5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CK8-18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Pan-CK</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$31:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00F3-4D27-8E76-E7297C68D7B9}"/>
+              <c16:uniqueId val="{00000001-CC2B-4B19-84B2-934E773BFC51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2148,7 +2981,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2198,7 +3031,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2212,7 +3045,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>RMSE</a:t>
+                  <a:t>FID</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2230,7 +3063,861 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75347417489187185"/>
+          <c:y val="5.8744298003841011E-2"/>
+          <c:w val="0.1850150494211906"/>
+          <c:h val="0.19703657135864602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4707691114545221E-2"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.91184092985046328"/>
+          <c:h val="0.78251656593195784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$46:$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CD3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CD20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CD45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B39-42DA-BD89-D38B9EF2A711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="450038527"/>
+        <c:axId val="450038943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450038527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450038943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450038943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Corr.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17763668343322367"/>
+          <c:y val="3.3555499402870642E-2"/>
+          <c:w val="0.79639175377689697"/>
+          <c:h val="0.81965924714622129"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ERa</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Danenberg</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3882221716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4082876701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61985700939999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1458223203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13486557269999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1747951170000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0056-4B96-A981-838BF0B11FBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ERa</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Danenberg</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-248E-409B-AB25-AF9720FD55AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="457638511"/>
+        <c:axId val="457638927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457638511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457638927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457638927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE / % area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2277,9 +3964,10 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450038527"/>
+        <c:crossAx val="457638511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2290,22 +3978,26 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84692773428435786"/>
-          <c:y val="4.5336261335475893E-2"/>
-          <c:w val="0.13983860430745504"/>
-          <c:h val="0.16118804138323276"/>
+          <c:x val="0.7824838272617981"/>
+          <c:y val="8.5512959580635525E-2"/>
+          <c:w val="0.10468976738807781"/>
+          <c:h val="0.14388595543539973"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2314,7 +4006,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2349,7 +4041,1197 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17763668343322367"/>
+          <c:y val="3.3555499402870642E-2"/>
+          <c:w val="0.79639175377689697"/>
+          <c:h val="0.81965924714622129"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$9:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>pHH3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>H3K27me</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jackson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27749155771600498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25666775391575802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31836085952235299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115243205004764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43841542505719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20128612370691801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17482263239736898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8334-4E12-914A-7B5A62EB9236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$9:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>pHH3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>H3K27me</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jackson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>0.22009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8334-4E12-914A-7B5A62EB9236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="457638511"/>
+        <c:axId val="457638927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457638511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457638927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457638927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE / % area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457638511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7824838272617981"/>
+          <c:y val="8.5512959580635525E-2"/>
+          <c:w val="0.10541463590643145"/>
+          <c:h val="0.13712209935017153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$9:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CK8-18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ki67</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CK5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>pHH3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>HER2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pan-CK</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>H3K27me</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jackson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>257.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EF8-448E-8424-F828939EB658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="457638511"/>
+        <c:axId val="457638927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457638511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="457638927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457638927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457638511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14730656532331199"/>
+          <c:y val="4.8198723648115505E-2"/>
+          <c:w val="0.8092420285807217"/>
+          <c:h val="0.78251656593195784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$78:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CD3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CD68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CD20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CD45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pan-CK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CK5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CK8-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ki67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HER2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ERa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.14710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE61-4435-AE78-9073A36085FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="450038527"/>
+        <c:axId val="450038943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450038527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450038943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correlation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of real and predicted</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450038527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="LID4096"/>
     </a:p>
@@ -2363,6 +5245,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2562,6 +5524,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3067,7 +6189,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3572,7 +6694,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4077,7 +7199,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4582,7 +7704,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5087,56 +8209,3050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>18287</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>272030</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0C3D94-C244-4DF4-B612-1930CE3BCF2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>454226</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5157,7 +11273,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5165,16 +11281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29493</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>47999</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25587</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>120837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5193,6 +11309,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97915</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>117245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070373EA-76CE-4C13-98C1-F77BA2D8BD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -5201,23 +11355,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>97916</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21996</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582085</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>3486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>341033</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>286747</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>181054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070373EA-76CE-4C13-98C1-F77BA2D8BD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E0103C-35C9-494D-BDA3-B94A3179A448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5239,23 +11393,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>313204</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>182859</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112297</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>147490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E0103C-35C9-494D-BDA3-B94A3179A448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3458E7BF-7A9D-424E-AC62-6A25BFF7E915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,7 +11429,347 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592502</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48C374F-4F5C-4A82-B661-C23F945C749F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>570090</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB298B6-DB90-4E04-8355-BD6DE4F1DC08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>77219</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3E5FB0-55E2-4115-BDA1-B6DF3CAE6DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263323</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>357476</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>148035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460B707C-A51C-4219-B071-82FA1A9911AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313204</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>173787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EC699C-C12A-45E8-9634-1BA8E2E98BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>176334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>321143</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>177764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D8C950-595A-47C4-A456-4505A3F33310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94215</cdr:x>
+      <cdr:y>0.05543</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94215</cdr:x>
+      <cdr:y>0.82379</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FC0CE6-0C90-47ED-AEAE-F2C492B498E0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="5260698" y="234190"/>
+          <a:ext cx="0" cy="3246403"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92996</cdr:x>
+      <cdr:y>0.07576</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9303</cdr:x>
+      <cdr:y>0.82382</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA08E95C-D24C-43E5-B49E-00124E90E957}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="7007412" y="268942"/>
+          <a:ext cx="2555" cy="2655585"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5541,19 +12035,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5561,19 +12056,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5581,420 +12079,1151 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>0.3882221716</v>
+      </c>
+      <c r="D2">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>340.8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
+        <v>0.4082876701</v>
+      </c>
+      <c r="D3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>292.7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
+        <v>0.61985700939999999</v>
+      </c>
+      <c r="D4">
         <v>0.442</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>314</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
+        <v>0.1458223203</v>
+      </c>
+      <c r="D5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>371.6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
+        <v>0.13486557269999999</v>
+      </c>
+      <c r="D6">
         <v>0.374</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>346.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
+        <v>7.1747951170000004E-2</v>
+      </c>
+      <c r="D7">
         <v>0.312</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>257.7</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>0.27749155771600498</v>
+      </c>
+      <c r="D9">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>257.05</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <v>0.25666775391575802</v>
+      </c>
+      <c r="D10">
         <v>0.39100000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>295.01</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>-0.113</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
+        <v>0.31836085952235299</v>
+      </c>
+      <c r="D11">
         <v>0.379</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>270.7</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>0.115243205004764</v>
+      </c>
+      <c r="D12">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>317.12</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C13">
+        <v>0.43841542505719</v>
+      </c>
+      <c r="D13">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>240.74</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>-0.155</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C14">
+        <v>0.20128612370691801</v>
+      </c>
+      <c r="D14">
         <v>0.318</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>298.39999999999998</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15">
+        <v>0.17482263239736898</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.22009999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>253.4</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>-0.13700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <f>C6</f>
+      <c r="C19" s="2">
+        <v>13.48655727</v>
+      </c>
+      <c r="D19">
+        <f>D6</f>
         <v>0.374</v>
       </c>
-      <c r="D17">
+      <c r="E19">
+        <f>D14</f>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14.58223203</v>
+      </c>
+      <c r="D20">
+        <f>D5</f>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E20">
+        <f>D11</f>
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>61.985700940000001</v>
+      </c>
+      <c r="D21">
+        <f>D4</f>
+        <v>0.442</v>
+      </c>
+      <c r="E21">
+        <f>D9</f>
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>38.822217160000001</v>
+      </c>
+      <c r="D22">
+        <f>D2</f>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E22">
+        <f>D10</f>
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40.82876701</v>
+      </c>
+      <c r="D23">
+        <f>D3</f>
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E23">
+        <f>D13</f>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13.48655727</v>
+      </c>
+      <c r="D26">
+        <f>E6</f>
+        <v>346.6</v>
+      </c>
+      <c r="E26">
+        <f>E14</f>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="F26" s="3">
+        <f>C14</f>
+        <v>0.20128612370691801</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>14.58223203</v>
+      </c>
+      <c r="D27">
+        <f>E5</f>
+        <v>371.6</v>
+      </c>
+      <c r="E27">
+        <f>E11</f>
+        <v>270.7</v>
+      </c>
+      <c r="F27" s="3">
+        <f>C11</f>
+        <v>0.31836085952235299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>61.985700940000001</v>
+      </c>
+      <c r="D28">
+        <f>E4</f>
+        <v>314</v>
+      </c>
+      <c r="E28">
+        <f>E9</f>
+        <v>257.05</v>
+      </c>
+      <c r="F28" s="3">
+        <f>C9</f>
+        <v>0.27749155771600498</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>38.822217160000001</v>
+      </c>
+      <c r="D29">
+        <f>E2</f>
+        <v>340.8</v>
+      </c>
+      <c r="E29">
+        <f>E10</f>
+        <v>295.01</v>
+      </c>
+      <c r="F29" s="3">
+        <f>C10</f>
+        <v>0.25666775391575802</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>40.82876701</v>
+      </c>
+      <c r="D30">
+        <f>E3</f>
+        <v>292.7</v>
+      </c>
+      <c r="E30">
+        <f>E13</f>
+        <v>240.74</v>
+      </c>
+      <c r="F30" s="3">
         <f>C13</f>
-        <v>0.318</v>
+        <v>0.43841542505719</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>206</v>
+      </c>
+      <c r="E35">
+        <f>E8</f>
+        <v>286</v>
+      </c>
+      <c r="F35">
+        <f>E16</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>263</v>
+      </c>
+      <c r="E37">
+        <f>D29</f>
+        <v>340.8</v>
+      </c>
+      <c r="F37">
+        <f>E29</f>
+        <v>295.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
-        <f>C5</f>
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D18">
-        <f>C10</f>
-        <v>0.379</v>
+      <c r="D39">
+        <v>337</v>
+      </c>
+      <c r="E39">
+        <f>D27</f>
+        <v>371.6</v>
+      </c>
+      <c r="F39">
+        <f>E27</f>
+        <v>270.7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <f>C4</f>
-        <v>0.442</v>
-      </c>
-      <c r="D19">
-        <f>C8</f>
-        <v>0.40100000000000002</v>
+      <c r="D40">
+        <v>189.6</v>
+      </c>
+      <c r="E40">
+        <f>D28</f>
+        <v>314</v>
+      </c>
+      <c r="F40">
+        <f>E28</f>
+        <v>257.05</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>198</v>
+      </c>
+      <c r="E41">
+        <f>D26</f>
+        <v>346.6</v>
+      </c>
+      <c r="F41">
+        <f>E26</f>
+        <v>298.39999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <f>D66</f>
+        <v>161.5</v>
+      </c>
+      <c r="E42">
+        <f>E3</f>
+        <v>292.7</v>
+      </c>
+      <c r="F42">
+        <f>E13</f>
+        <v>240.74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <f>D68</f>
+        <v>166.5</v>
+      </c>
+      <c r="E43">
+        <f>E7</f>
+        <v>257.7</v>
+      </c>
+      <c r="F43">
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.1458223203</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.34598979030000004</v>
+      </c>
+      <c r="D47" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.6619802722</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4">
+        <v>9.5516059779999996E-2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
-        <f>C2</f>
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="D20">
-        <f>C9</f>
-        <v>0.39100000000000001</v>
+      <c r="C50" s="4">
+        <v>0.3882221716</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3.256659931E-2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.21759999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.61985700939999999</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.36820000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="4">
+        <v>7.7682684299999999E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.37040000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C54" s="4">
         <f>C3</f>
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="D21">
-        <f>C12</f>
-        <v>0.35099999999999998</v>
+        <v>0.4082876701</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.13486557269999999</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <f>C7</f>
+        <v>7.1747951170000004E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2">
+        <v>14.58223203</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(B58,$B$33:$D$41,3,0)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
+        <v>34.598979030000002</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D67" si="0">VLOOKUP(B59,$B$33:$D$41,3,0)</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2">
+        <v>66.19802722</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9.5516059779999996</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2">
+        <v>38.822217160000001</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.2566599309999997</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2">
+        <v>61.985700940000001</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2">
+        <v>7.76826843</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2">
+        <f>C54*100</f>
+        <v>40.82876701</v>
+      </c>
+      <c r="D66">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <f>D6</f>
-        <v>346.6</v>
-      </c>
-      <c r="D24">
-        <f>D13</f>
-        <v>298.39999999999998</v>
+      <c r="C67" s="2">
+        <v>13.486557269999999</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2">
+        <f>C56*100</f>
+        <v>7.1747951170000004</v>
+      </c>
+      <c r="D68">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="4">
+        <f>VLOOKUP(B78,$B$46:$D$56,3,0)</f>
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" ref="D79:D88" si="1">VLOOKUP(B79,$B$46:$D$56,3,0)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21759999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37040000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
-        <f>D5</f>
-        <v>371.6</v>
-      </c>
-      <c r="D25">
-        <f>D10</f>
-        <v>270.7</v>
+      <c r="D84" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
-        <f>D4</f>
-        <v>314</v>
-      </c>
-      <c r="D26">
-        <f>D8</f>
-        <v>257.05</v>
+      <c r="D85" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36820000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <f>D2</f>
-        <v>340.8</v>
-      </c>
-      <c r="D27">
-        <f>D9</f>
-        <v>295.01</v>
+      <c r="D86" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
-        <f>D3</f>
-        <v>292.7</v>
-      </c>
-      <c r="D28">
-        <f>D12</f>
-        <v>240.74</v>
+      <c r="D87" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57750000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3">
+        <f>VLOOKUP(B94,$B$58:$D$68,2,0)</f>
+        <v>9.5516059779999996</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" ref="D94:D104" si="2">VLOOKUP(B94,$B$58:$D$68,3,0)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" ref="C95:C104" si="3">VLOOKUP(B95,$B$58:$D$68,2,0)</f>
+        <v>34.598979030000002</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
-        <v>3.7900000000000003E-2</v>
+      <c r="C96" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2566599309999997</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="2"/>
+        <v>351</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>5.0099999999999999E-2</v>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="3"/>
+        <v>7.76826843</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="2"/>
+        <v>206</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>6.93E-2</v>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="3"/>
+        <v>66.19802722</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="2"/>
+        <v>186.9</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>0.04</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="3"/>
+        <v>13.486557269999999</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="2"/>
+        <v>198</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="3"/>
+        <v>14.58223203</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="3"/>
+        <v>61.985700940000001</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="2"/>
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
         <v>9</v>
       </c>
+      <c r="C102" s="3">
+        <f t="shared" si="3"/>
+        <v>38.822217160000001</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>21</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="3"/>
+        <v>40.82876701</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="2"/>
+        <v>161.5</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>0.16339999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>6</v>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1747951170000004</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="2"/>
+        <v>166.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A16:F16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A45:G45" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:G54">
+      <sortCondition ref="D45"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B98:B100">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B84">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
